--- a/PythonExcelGPT/output.xlsx
+++ b/PythonExcelGPT/output.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -497,6 +497,125 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>[{'role': 'system', 'content': 'You are a Real Estate Agent'}, {'role': 'user', 'content': 'What is the best area to buy a house in Jacksonville, FL'}]</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ChatCompletionMessage(content='As a real estate agent, I advise you to consider the following best areas to buy a house in Jacksonville, FL:\n\n1. Riverside/Avondale: Located near downtown, this historic neighborhood boasts beautiful architecture, tree-lined streets, parks, and the trendy Five Points area with shops, restaurants, and entertainment options.\n\n2. San Marco: Another historic neighborhood, San Marco offers a mix of charming homes, local boutiques, and dining options. It also benefits from the nearby St. Johns River and is conveniently located near downtown Jacksonville.\n\n3. Mandarin: Situated along the St. Johns River, Mandarin is known for its suburban vibe, great schools, parks, and access to water recreational activities. It offers a quieter, family-friendly atmosphere with a mix of older and newer homes.\n\n4. Atlantic Beach: If you prefer a beach lifestyle, Atlantic Beach is an excellent choice. It offers beautiful oceanfront homes, a charming downtown area, a private country club, and easy access to the beaches and nightlife of Jacksonville Beach.\n\n5. Ponte Vedra Beach: Located just south of Jacksonville, Ponte Vedra Beach is known for its luxurious homes, top-rated schools, world-renowned golf courses, and pristine beaches. It is an upscale community with excellent amenities and a resort-like atmosphere.\n\nRemember, the best area to buy a house depends on your preferences, budget, and lifestyle. It is important to work with a knowledgeable local real estate agent who can guide you based on your specific needs.', role='assistant', function_call=None, tool_calls=None)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>[{'role': 'system', 'content': 'You are a Real Estate Agent'}, {'role': 'user', 'content': 'What is the best area to buy a house in Jacksonville, FL'}]</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ChatCompletionMessage(content='As a real estate agent, I would say that the best area to buy a house in Jacksonville, FL depends on your preferences and specific needs. However, here are a few popular neighborhoods that are highly regarded:\n\n1. Riverside/Avondale: Known for its historic charm, tree-lined streets, and beautiful homes. It offers a vibrant arts scene, local restaurants, and proximity to the St. Johns River.\n\n2. San Marco: A trendy and upscale neighborhood with a mix of historic homes and newer developments. It offers boutique shopping, dining options, and a convenient location near downtown Jacksonville.\n\n3. Ponte Vedra Beach: Located to the southeast of Jacksonville, this area is highly desirable for its beautiful beaches, golf courses, and upscale amenities. It is known for its luxury homes and a strong sense of community.\n\n4. Mandarin: Situated along the St. Johns River, Mandarin offers a suburban feel with a mix of waterfront properties and large lots. It has a strong sense of history, good schools, and a range of shopping and dining options.\n\n5. Atlantic Beach/Neptune Beach: These coastal communities offer a laid-back beach lifestyle with a range of housing options, from beachfront properties to inland neighborhoods. They have a strong sense of community, local festivals, and popular beach activities.\n\nIt is essential to consider factors such as budget, proximity to work, schools, amenities, and overall lifestyle when choosing the best area for your needs. Consulting with a local real estate agent can provide you with more detailed and personalized recommendations based on your specific preferences.', role='assistant', function_call=None, tool_calls=None)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>[{'role': 'system', 'content': 'You are a Real Estate Agent'}, {'role': 'user', 'content': 'What is the best area to buy a house in Jacksonville, FL'}]</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ChatCompletionMessage(content='As a real estate agent, I would recommend considering the following areas in Jacksonville, FL for buying a house:\n\n1. Riverside/Avondale: Known for its historic charm, tree-lined streets, and vibrant local community. Riverside/Avondale offers a mix of restored old homes and newer developments, while also being close to downtown and the St. Johns River.\n\n2. San Marco: A highly desirable neighborhood with a mix of historic homes and modern developments. San Marco offers a trendy atmosphere with unique shops, restaurants, and a beautiful waterfront area.\n\n3. Ponte Vedra Beach: Located southeast of Jacksonville, Ponte Vedra Beach is known for its high-end properties and upscale lifestyle. It offers beautiful beaches, top-rated schools, and exclusive golf communities like TPC Sawgrass.\n\n4. Beaches (Atlantic Beach, Jacksonville Beach, Neptune Beach): If you\'re looking for a coastal lifestyle, the beach communities in Jacksonville are worth considering. These areas offer a relaxed vibe, oceanfront properties, and a wide range of recreational activities.\n\n5. Mandarin: Situated along the St. Johns River, Mandarin is known for its natural beauty, large lots, and strong sense of community. It provides a suburban feel while still being relatively close to downtown Jacksonville.\n\nHowever, the "best" area to buy a house ultimately depends on your specific needs, preferences, and budget. I would recommend working with a local real estate agent who can further assist you and guide you through the process.', role='assistant', function_call=None, tool_calls=None)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>[{'role': 'system', 'content': 'You are a Real Estate Agent'}, {'role': 'user', 'content': 'What is the best area to buy a house in Jacksonville, FL'}]</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ChatCompletionMessage(content="Jacksonville, FL offers a variety of great areas for buying a house, depending on your preferences and needs. Here are a few popular areas to consider:\n\n1. Riverside/Avondale: Known for its historic homes and trendy atmosphere, Riverside/Avondale offers a mix of older houses with unique architectural styles, along with charming streets and a vibrant arts scene. The area also has a great selection of restaurants, shops, and parks.\n\n2. San Marco: Located just south of Downtown Jacksonville, San Marco is a vibrant neighborhood known for its beautiful homes, tree-lined streets, and a relatively low crime rate. It offers a variety of housing options, from historic bungalows to modern townhouses. San Marco also has a bustling dining and shopping scene, along with easy access to major highways.\n\n3. Julington Creek/Mandarin: Situated in the southeastern part of Jacksonville, this area boasts excellent schools, a suburban atmosphere, and a variety of housing options. Julington Creek Plantation and Mandarin offer beautiful homes, many with large yards, and close proximity to the St. Johns River. The area also provides convenient access to shopping centers, golf courses, and recreational activities.\n\n4. Ponte Vedra Beach: If you're looking for a beachfront community, Ponte Vedra Beach is a top choice. Known for its upscale neighborhoods and pristine beaches, this area is particularly attractive for those seeking a higher-end coastal lifestyle. Ponte Vedra Beach is also home to world-class golf courses and highly rated schools.\n\nThese are just a few of the many great areas to consider when buying a house in Jacksonville, FL. Working with a knowledgeable local real estate agent can provide more personalized advice based on your specific preferences and needs.", role='assistant', function_call=None, tool_calls=None)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>[{'role': 'system', 'content': 'You are a Real Estate Agent'}, {'role': 'user', 'content': 'What is the best area to buy a house in Jacksonville, FL'}]</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ChatCompletionMessage(content='As a real estate agent, I can provide you with information on some popular areas in Jacksonville, FL that are often considered among the best for buying a house. However, keep in mind that the "best" area can vary depending on your specific needs and preferences. Here are a few areas worth considering:\n\n1. Riverside/Avondale: Known for its historic charm, Riverside/Avondale offers beautiful tree-lined streets and a mix of architectural styles. The area is known for its trendy shops, restaurants, and vibrant arts scene.\n\n2. San Marco: Located just south of downtown, San Marco is a sought-after neighborhood with a mix of historic homes and newer developments. It offers a great selection of local shops, upscale dining options, and parks.\n\n3. Beaches: Jacksonville has several beach communities, including Jacksonville Beach, Atlantic Beach, and Neptune Beach. These areas provide a laid-back coastal lifestyle, with easy access to the beach and a range of recreational activities.\n\n4. Mandarin: Situated along the St. Johns River, Mandarin is a suburban area known for its picturesque landscapes and charming historic sites. The neighborhood offers a mix of new and established homes, along with excellent schools and many outdoor recreational opportunities.\n\n5. Southside: Conveniently located near major highways and the St. Johns Town Center, Southside is a popular choice for families and professionals. The area offers diverse housing options, a range of amenities, and proximity to businesses and shopping.\n\n6. St. Johns County: Though not technically part of Jacksonville, many people consider the nearby St. Johns County, specifically communities like Ponte Vedra Beach or Nocatee, due to their highly-rated schools, upscale lifestyle, and access to recreational facilities, golf courses, and other amenities.\n\nRemember, it is important to conduct thorough research, visit the neighborhoods in person, and consult with a local real estate agent to determine which area aligns best with your needs, budget, and lifestyle.', role='assistant', function_call=None, tool_calls=None)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>[{'role': 'system', 'content': 'You are a Real Estate Agent'}, {'role': 'user', 'content': 'What is the best area to buy a house in Jacksonville, FL'}]</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ChatCompletionMessage(content="As an AI language model, I don't have access to real-time data or personal opinions, but I can provide general information. Determining the best area to buy a house in Jacksonville, FL depends on your personal preferences and needs. Here are some popular neighborhoods in Jacksonville:\n\n1. Riverside/Avondale: Known for its historic homes, parks, trendy dining options, and a vibrant arts scene.\n2. San Marco: Offers a mix of historic homes and newer developments, with a charming and walkable downtown area.\n3. Jacksonville Beach: Ideal for those seeking beachfront properties and a relaxed beach lifestyle with various recreational activities.\n4. Ponte Vedra Beach: Considered an upscale neighborhood with beautiful beaches, golf courses, and highly-rated schools.\n5. Mandarin: Located along the St. Johns River, it provides a suburban feel with spacious lots, parks, and nature preserves.\n\nIt's always recommended to consult with a local real estate agent, who can provide specific guidance based on your preferences, budget, and other criteria. They will have up-to-date market information to help you make an informed decision.", role='assistant', function_call=None, tool_calls=None)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>[{'role': 'system', 'content': 'You are a Real Estate Agent'}, {'role': 'user', 'content': 'What is the best area to buy a house in Jacksonville, FL'}]</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ChatCompletionMessage(content="As a real estate agent, I can provide you with some of the top areas to consider when buying a house in Jacksonville, FL. However, the best area for you will depend on your personal preferences, budget, and specific needs. Here are a few popular neighborhoods to consider:\n\n1. Riverside/Avondale: Known for its historic charm, tree-lined streets, and beautiful architecture. It offers a mix of historic homes, trendy shops, restaurants, and a vibrant arts scene.\n\n2. San Marco: Located just south-east of downtown, it offers a mix of historic and modern homes. The area features a variety of dining options, shops, and access to the St. Johns River.\n\n3. Ponte Vedra Beach: Located just south of Jacksonville, it's known for its prestigious golf courses, upscale communities, and beautiful beaches. This area is ideal for those looking for a more luxury-oriented lifestyle.\n\n4. Atlantic Beach: A seaside community with stunning white sand beaches and a laid-back atmosphere. It offers a mix of single-family homes and condos, with plenty of beachfront properties available.\n\n5. Mandarin: Located on the south side of the St. Johns River, it offers a suburban feel with a mix of homes ranging from historic properties to newer developments. Mandarin is known for its beautiful parks, outdoor activities, and top-rated schools.\n\nIt's recommended to work closely with a local real estate agent who can understand your specific needs and help you find the best area and property that aligns with your requirements.", role='assistant', function_call=None, tool_calls=None)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
